--- a/data/trans_camb/P54_A_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>60,1</t>
+          <t>59,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>64,15</t>
+          <t>63,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,22</t>
+          <t>61,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,45</t>
+          <t>65,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,12</t>
+          <t>60,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,88</t>
+          <t>64,82</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,62; 68,15</t>
+          <t>50,58; 68,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,98; 72,12</t>
+          <t>52,93; 71,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,83; 70,77</t>
+          <t>52,95; 69,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,7; 72,63</t>
+          <t>56,08; 72,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,63; 67,07</t>
+          <t>54,16; 66,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,46; 70,47</t>
+          <t>57,59; 70,53</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>219,78%</t>
+          <t>218,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>234,6%</t>
+          <t>233,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>202,91%</t>
+          <t>200,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>213,45%</t>
+          <t>213,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>211,48%</t>
+          <t>209,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>224,48%</t>
+          <t>224,28%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>149,56; 316,7</t>
+          <t>146,93; 321,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>161,9; 336,02</t>
+          <t>159,31; 340,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>141,14; 285,9</t>
+          <t>140,46; 282,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>151,53; 304,56</t>
+          <t>147,51; 296,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>162,56; 272,81</t>
+          <t>160,2; 269,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>172,05; 289,7</t>
+          <t>173,85; 288,73</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,66</t>
+          <t>47,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,41</t>
+          <t>55,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,42</t>
+          <t>45,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,45</t>
+          <t>47,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,62</t>
+          <t>46,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,63</t>
+          <t>51,55</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,16; 58,84</t>
+          <t>34,33; 58,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,93; 64,53</t>
+          <t>46,37; 64,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,97; 53,68</t>
+          <t>36,79; 53,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,69; 55,22</t>
+          <t>39,42; 55,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,08; 54,16</t>
+          <t>38,12; 53,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,6; 58,23</t>
+          <t>45,55; 57,86</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>116,88%</t>
+          <t>116,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>135,89%</t>
+          <t>135,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,88%</t>
+          <t>100,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>106,56%</t>
+          <t>105,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,03%</t>
+          <t>117,85%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,81; 185,85</t>
+          <t>76,89; 182,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,04; 202,64</t>
+          <t>95,62; 199,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,62; 132,16</t>
+          <t>69,37; 131,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,23; 135,24</t>
+          <t>72,26; 135,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,3; 146,04</t>
+          <t>80,71; 140,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,44; 153,0</t>
+          <t>92,09; 152,02</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,11</t>
+          <t>45,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,88</t>
+          <t>43,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41,07</t>
+          <t>40,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,53</t>
+          <t>44,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,64</t>
+          <t>43,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,32</t>
+          <t>44,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,99; 54,54</t>
+          <t>34,58; 53,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,64; 51,7</t>
+          <t>34,22; 51,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,84; 47,4</t>
+          <t>33,83; 47,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,56; 50,47</t>
+          <t>38,7; 50,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,63; 48,89</t>
+          <t>37,74; 48,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,28; 49,17</t>
+          <t>39,02; 49,71</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>78,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,19%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,75; 137,0</t>
+          <t>66,35; 132,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,5; 130,86</t>
+          <t>66,05; 128,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,18; 101,39</t>
+          <t>60,02; 101,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,74; 108,86</t>
+          <t>67,28; 107,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,98; 107,71</t>
+          <t>71,27; 107,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,99; 109,96</t>
+          <t>73,53; 110,81</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,32</t>
+          <t>43,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>47,5</t>
+          <t>47,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>45,9</t>
+          <t>45,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49,56</t>
+          <t>49,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,62</t>
+          <t>44,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>48,53</t>
+          <t>48,6</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,45; 50,08</t>
+          <t>35,91; 51,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,48; 54,23</t>
+          <t>39,62; 53,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,01; 52,19</t>
+          <t>38,68; 51,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,29; 55,71</t>
+          <t>43,35; 55,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,37; 49,01</t>
+          <t>39,81; 49,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,83; 52,8</t>
+          <t>43,9; 53,24</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>105,67%</t>
+          <t>105,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>101,97%</t>
+          <t>102,12%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>65,49; 117,73</t>
+          <t>67,18; 122,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>74,51; 129,63</t>
+          <t>71,89; 127,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>74,01; 126,77</t>
+          <t>73,99; 124,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>81,99; 134,22</t>
+          <t>81,91; 133,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,72; 112,01</t>
+          <t>77,45; 113,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>83,85; 120,39</t>
+          <t>84,49; 122,9</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>61,69</t>
+          <t>61,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>62,98</t>
+          <t>62,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>63,59</t>
+          <t>63,74</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>63,26</t>
+          <t>63,58</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>62,73</t>
+          <t>62,6</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>63,19</t>
+          <t>63,23</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>51,7; 68,4</t>
+          <t>51,84; 68,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>54,2; 70,08</t>
+          <t>54,61; 70,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55,38; 70,3</t>
+          <t>55,73; 70,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55,63; 70,55</t>
+          <t>55,24; 70,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>56,28; 67,58</t>
+          <t>56,37; 67,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>57,48; 68,19</t>
+          <t>57,4; 67,97</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>215,11%</t>
+          <t>213,7%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>219,58%</t>
+          <t>218,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>201,14%</t>
+          <t>201,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>200,07%</t>
+          <t>201,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>208,6%</t>
+          <t>208,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>210,13%</t>
+          <t>210,23%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>153,68; 290,93</t>
+          <t>152,12; 297,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>159,42; 306,25</t>
+          <t>159,44; 308,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>144,78; 275,95</t>
+          <t>144,62; 273,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150,72; 276,65</t>
+          <t>149,58; 272,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>168,22; 260,74</t>
+          <t>165,63; 264,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>166,48; 259,55</t>
+          <t>166,7; 258,21</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>59,09</t>
+          <t>58,53</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>64,51</t>
+          <t>64,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>67,85</t>
+          <t>66,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>64,01</t>
+          <t>63,26</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>68,55</t>
+          <t>68,44</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>46,68; 67,37</t>
+          <t>46,32; 67,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>56,4; 71,81</t>
+          <t>55,59; 71,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>59,97; 74,11</t>
+          <t>59,48; 73,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>65,6; 78,31</t>
+          <t>65,28; 77,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>57,11; 69,8</t>
+          <t>56,81; 68,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>63,52; 73,26</t>
+          <t>63,66; 73,74</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>198,57%</t>
+          <t>196,64%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>216,79%</t>
+          <t>215,87%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>268,76%</t>
+          <t>265,13%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>284,44%</t>
+          <t>284,37%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>234,73%</t>
+          <t>231,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>251,4%</t>
+          <t>250,95%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>129,14; 276,86</t>
+          <t>133,01; 286,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>155,28; 310,99</t>
+          <t>150,08; 309,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>197,29; 378,17</t>
+          <t>189,09; 365,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>213,92; 410,22</t>
+          <t>204,07; 388,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>182,63; 298,17</t>
+          <t>181,96; 301,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>198,28; 320,05</t>
+          <t>201,11; 329,51</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1537,27 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>52,04</t>
+          <t>51,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>55,27</t>
+          <t>55,14</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>53,3</t>
+          <t>52,87</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>56,11</t>
+          <t>56,22</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>52,71</t>
+          <t>52,35</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>48,08; 55,47</t>
+          <t>47,33; 55,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>51,96; 58,82</t>
+          <t>51,76; 58,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>50,19; 56,23</t>
+          <t>49,87; 55,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>53,15; 58,92</t>
+          <t>53,69; 59,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>50,39; 55,16</t>
+          <t>49,64; 54,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>53,45; 57,9</t>
+          <t>53,39; 57,82</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>136,96%</t>
+          <t>136,15%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>145,47%</t>
+          <t>145,1%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>133,44%</t>
+          <t>132,36%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>140,49%</t>
+          <t>140,77%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>135,33%</t>
+          <t>134,38%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>143,08%</t>
+          <t>143,05%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>119,63; 156,84</t>
+          <t>117,63; 158,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>128,26; 168,13</t>
+          <t>127,84; 166,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>119,18; 150,33</t>
+          <t>116,3; 148,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>125,23; 158,41</t>
+          <t>126,9; 157,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>122,98; 147,47</t>
+          <t>121,35; 147,07</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>130,64; 155,51</t>
+          <t>130,14; 156,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
